--- a/medicine/Sexualité et sexologie/Agression_sexuelle/Agression_sexuelle.xlsx
+++ b/medicine/Sexualité et sexologie/Agression_sexuelle/Agression_sexuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une agression sexuelle désigne tout acte de nature sexuelle non consenti, qui implique de toucher les parties intimes du corps humain sans l'acquiescement explicite de la victime.
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certains pays, la législation indique que l'agression doit être imposée par une contrainte physique ou psychologique pour être considérée comme un crime[réf. nécessaire]. Cependant, il reste difficile de s'en protéger et défendre, surtout quand l'agresseur use d'emprise et pouvoir.[réf. nécessaire]
-L'agression sexuelle par contrainte est légiférée dans la plupart des pays et généralement considérée comme un crime. Cela n'est pas le cas notamment au Canada où la contrainte n'est pas un critère pour caractériser l'acte d'agression sexuelle[1].
+L'agression sexuelle par contrainte est légiférée dans la plupart des pays et généralement considérée comme un crime. Cela n'est pas le cas notamment au Canada où la contrainte n'est pas un critère pour caractériser l'acte d'agression sexuelle.
 Certaines juridictions traitent de façon distincte l'agression impliquant une pénétration, spécifiquement désignée comme un viol et constituant un crime sexuel.
 </t>
         </is>
@@ -546,13 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manipulation mentale
-Certaines victimes peuvent avoir subi une manipulation mentale qui les a soumises à une agression sexuelle. Ces méthodes présentent l'avantage pour les agresseurs de réduire le risque de plainte judiciaire des victimes. Ces manipulations provoquent et laissent un sentiment de culpabilité chez certaines victimes, bien qu'elles n'aient rien à se reprocher.
+          <t>Manipulation mentale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines victimes peuvent avoir subi une manipulation mentale qui les a soumises à une agression sexuelle. Ces méthodes présentent l'avantage pour les agresseurs de réduire le risque de plainte judiciaire des victimes. Ces manipulations provoquent et laissent un sentiment de culpabilité chez certaines victimes, bien qu'elles n'aient rien à se reprocher.
 Certaines agressions sexuelles peuvent être commises sous couvert de médecine, par exemple en réalisant des examens génitaux ou mammaires sans le consentement du patient, par abus d'autorité, abus de confiance, abus de faiblesse ou par surprise, ou encore lorsque l'examen médical librement consenti est détourné par son auteur de son objectif médical dans un but sexuel. En France, la loi du 4 mars 2002 précise qu'« aucun acte médical ni aucun traitement ne peut être pratiqué sans le consentement libre et éclairé de la personne et ce consentement peut être retiré à tout moment ». Des lois antérieures à celle du 4 mars 2002 devaient elles aussi probablement donner des droits similaires[évasif].
-Violences sexuelles et drogues
-Certaines drogues et médicaments, appelés « drogue du viol », sont parfois utilisés pour commettre des agressions sexuelles, par exemple pour endormir la victime, provoquer une amnésie ou supprimer la volonté. Ces drogues et médicaments incluent notamment le GHB, le GBL (se transformant en GHB une fois dans l'organisme), le Rohypnol et différents somnifères.
-Ces drogues sont généralement diluées dans de l'alcool ou des boissons sucrées. Le mélange avec l'alcool peut empêcher la victime d'avoir des soupçons après son réveil, car un sommeil ou une amnésie peuvent passer pour un effet de l'alcool.
-L'alcool est en outre un désinhibiteur qui peut d'une part faciliter le passage à l'acte chez l'agresseur et d'autre part diminuer les moyens de défense chez l'agressé[2].
 </t>
         </is>
       </c>
@@ -578,52 +593,168 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Méthodes utilisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Violences sexuelles et drogues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines drogues et médicaments, appelés « drogue du viol », sont parfois utilisés pour commettre des agressions sexuelles, par exemple pour endormir la victime, provoquer une amnésie ou supprimer la volonté. Ces drogues et médicaments incluent notamment le GHB, le GBL (se transformant en GHB une fois dans l'organisme), le Rohypnol et différents somnifères.
+Ces drogues sont généralement diluées dans de l'alcool ou des boissons sucrées. Le mélange avec l'alcool peut empêcher la victime d'avoir des soupçons après son réveil, car un sommeil ou une amnésie peuvent passer pour un effet de l'alcool.
+L'alcool est en outre un désinhibiteur qui peut d'une part faciliter le passage à l'acte chez l'agresseur et d'autre part diminuer les moyens de défense chez l'agressé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agression_sexuelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agression_sexuelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Québec
-Au Québec, une femme sur trois subirait une agression sexuelle au cours de sa vie. Alors qu’un homme sur 6 subirait une agression sexuelle au cours de la sienne[3]. En 2019, le nombre d’agressions sexuelles dénoncé était de 5 722[4]. Le sexe de la victime et de l’agresseur n’était pas précisé. 1 518 agressions ont été dénoncées de plus qu’en 2010. Il y a donc une augmentation dans le nombre de victimes d’agressions sexuelles, ou alors, celles-ci osent dénoncer de plus en plus aux autorités policières. Cependant, on estime que moins de 10 % des agressions sexuelles vécues par des adultes sont dénoncées et enregistrées par les services de la sécurité[5].
-Le gouvernement du Québec a subventionné plusieurs comités d’experts afin qu’ils puissent tirer des pistes de solutions pour encourager les victimes d’agressions sexuelles à dénoncer les injustices à leur égard[6],[7].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au Québec</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, une femme sur trois subirait une agression sexuelle au cours de sa vie. Alors qu’un homme sur 6 subirait une agression sexuelle au cours de la sienne. En 2019, le nombre d’agressions sexuelles dénoncé était de 5 722. Le sexe de la victime et de l’agresseur n’était pas précisé. 1 518 agressions ont été dénoncées de plus qu’en 2010. Il y a donc une augmentation dans le nombre de victimes d’agressions sexuelles, ou alors, celles-ci osent dénoncer de plus en plus aux autorités policières. Cependant, on estime que moins de 10 % des agressions sexuelles vécues par des adultes sont dénoncées et enregistrées par les services de la sécurité.
+Le gouvernement du Québec a subventionné plusieurs comités d’experts afin qu’ils puissent tirer des pistes de solutions pour encourager les victimes d’agressions sexuelles à dénoncer les injustices à leur égard,.
 En 2020, un rapport, nommé Rebâtir la confiance, enquêtait sur l’accompagnement des victimes d’agressions sexuelles et de la violence conjugale a été déposé. Celui-ci a été endossé par plusieurs figures de la politique du Québec, dont Isabelle Charest, ministre déléguée à l’Éducation et ministre de la Condition féminine. Il dresse une liste de 190 recommandations qui seraient utiles aux victimes d’agressions sexuelles et de violences conjugales[réf. souhaitée].
 Les recommandations couvrent entre autres la facilitation de l’accès au système judiciaire. Cela peut se faire avec la mise en place de traducteurs disponibles, lorsque la victime ne peut s’exprimer en français. Une autre solution serait de faciliter les liens entre les ressources psychologiques, judiciaires et médicales.
 Elles suggèrent d’apporter une humanisation au système judiciaire. Entre autres, en apportant un meilleur soutien à la victime. Celle-ci est fragile émotionnellement, le climat glacial des tribunaux peut être une source de stress qui n’aiderait pas la victime à bien livrer son témoignage.
 Finalement, pour bien répondre à tous les besoins des victimes de violences conjugales et d’agression sexuelle, le rapport offre l’idée de créer un tribunal spécialisé en cette matière. En effet, une spécialisation des employés entourant et supportant la victime serait nettement bénéfique pour elle. Il y aurait moins de préjugés à leur égard et le service offert serait de meilleure qualité.[réf. souhaitée]
-En France
-En 2016, les premiers résultats de l'enquête Virage montrent que près de 580 000 femmes et 197 000 hommes de 20 à 69 ans sont victimes de violences sexuelles chaque année en France (y compris viols et tentatives de viol, mais hors harcèlement sexuel et exhibitionnisme). Une femme sur sept (14,5 %) et un homme sur vingt-cinq (3,9 %) déclarent avoir vécu au moins une forme d’agression sexuelle au cours de leur vie (hors harcèlement et exhibitionnisme). Cette enquête précise le contexte (famille, études, couple, travail, espace public) et l'âge où se produisent les agressions[8],[9]. La majorité des violences se produisent dans l'enfance ou l'adolescence.
-L’enquête de victimation réalisée dans la région Île-de-France depuis 2001 montre une stabilité globale (autour de 0,8 % des personnes interrogées déclarent avoir été victimes d’une agression sexuelle au cours des trois années précédant l’enquête), avec toutefois une augmentation inédite en 2017 dans le contexte de l'affaire Weinstein et du mouvement MeToo, qui ont favorisé une libération de la parole. La majorité des victimes connaissait l'auteur de l'agression. Concernant les agressions hors ménage, les victimes sont plus souvent jeunes et assez pauvres[10].
-Union européenne
-Les statistiques européennes d'Eurostat utilisent la classification internationale ICCS[11] qui considère séparément l'agression sexuelle (code ICCS 03012) et le viol (code ICCS 03011) (à la différence du droit français).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Agression_sexuelle</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agression_sexuelle</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, les premiers résultats de l'enquête Virage montrent que près de 580 000 femmes et 197 000 hommes de 20 à 69 ans sont victimes de violences sexuelles chaque année en France (y compris viols et tentatives de viol, mais hors harcèlement sexuel et exhibitionnisme). Une femme sur sept (14,5 %) et un homme sur vingt-cinq (3,9 %) déclarent avoir vécu au moins une forme d’agression sexuelle au cours de leur vie (hors harcèlement et exhibitionnisme). Cette enquête précise le contexte (famille, études, couple, travail, espace public) et l'âge où se produisent les agressions,. La majorité des violences se produisent dans l'enfance ou l'adolescence.
+L’enquête de victimation réalisée dans la région Île-de-France depuis 2001 montre une stabilité globale (autour de 0,8 % des personnes interrogées déclarent avoir été victimes d’une agression sexuelle au cours des trois années précédant l’enquête), avec toutefois une augmentation inédite en 2017 dans le contexte de l'affaire Weinstein et du mouvement MeToo, qui ont favorisé une libération de la parole. La majorité des victimes connaissait l'auteur de l'agression. Concernant les agressions hors ménage, les victimes sont plus souvent jeunes et assez pauvres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agression_sexuelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agression_sexuelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les statistiques européennes d'Eurostat utilisent la classification internationale ICCS qui considère séparément l'agression sexuelle (code ICCS 03012) et le viol (code ICCS 03011) (à la différence du droit français).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agression_sexuelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agression_sexuelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Droit par pays</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
